--- a/getconfig.xlsx
+++ b/getconfig.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1602202688" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1602202688" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1602202688" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1602202688"/>
+      <pm:revision xmlns:pm="smNativeData" day="1602632204" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1602632204" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1602632204" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1602632204"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="179">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -596,7 +596,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632204" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -611,7 +611,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632204" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -627,7 +627,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632204" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -644,7 +644,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632204" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -666,7 +666,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -677,7 +677,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -688,7 +688,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -699,7 +699,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -710,7 +710,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -721,7 +721,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -732,7 +732,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -743,7 +743,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -754,7 +754,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -765,7 +765,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -776,7 +776,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -787,7 +787,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -798,7 +798,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -809,7 +809,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -820,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -831,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -842,7 +842,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -853,7 +853,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -870,7 +870,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -881,7 +881,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632204" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -903,7 +903,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
+          <pm:border xmlns:pm="smNativeData" id="1602632204"/>
         </ext>
       </extLst>
     </border>
@@ -922,7 +922,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -946,7 +946,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
+          <pm:border xmlns:pm="smNativeData" id="1602632204"/>
         </ext>
       </extLst>
     </border>
@@ -965,7 +965,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -987,7 +987,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1008,7 +1008,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1030,7 +1030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1052,7 +1052,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1073,7 +1073,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1095,7 +1095,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1119,7 +1119,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1143,7 +1143,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1166,7 +1166,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1189,7 +1189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1211,7 +1211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1234,7 +1234,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1255,7 +1255,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1276,7 +1276,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1300,7 +1300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1324,7 +1324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1347,7 +1347,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1371,7 +1371,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1395,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602632204">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1430,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,12 +1539,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1559,10 +1553,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1602202688" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1602632204" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1602202688" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1602632204" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -4803,7 +4797,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602632204" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4814,16 +4808,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602632204" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4834,25 +4828,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.500000" customWidth="1" style="0"/>
-    <col min="2" max="2" width="13.045455" customWidth="1" style="0"/>
-    <col min="3" max="9" width="13.527273" customWidth="1" style="0"/>
-    <col min="10" max="10" width="44.245455" customWidth="1" style="0"/>
+    <col min="1" max="1" width="13.045455" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.527273" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -4860,519 +4853,430 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="24"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="27">
-        <f>ROW()-3</f>
-        <v>1</v>
+    <row r="4" spans="1:11">
+      <c r="A4" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="C4" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="D4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="28">
-        <f>ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="28">
-        <f>ROW()-3</f>
-        <v>3</v>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="C6" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="D6" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="28">
-        <f>ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>140</v>
       </c>
+      <c r="C7" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="D7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="28">
-        <f>ROW()-3</f>
-        <v>5</v>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="C8" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="D8" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="28">
-        <f>ROW()-3</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18" t="s">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
         <v>143</v>
       </c>
+      <c r="C9" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="D9" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="28">
-        <f>ROW()-3</f>
-        <v>7</v>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="C10" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="28">
-        <f>ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18" t="s">
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="28">
-        <f>ROW()-3</f>
-        <v>9</v>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="C12" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="D12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="28">
-        <f>ROW()-3</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="28">
-        <f>ROW()-3</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="28">
-        <f>ROW()-3</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
         <v>140</v>
       </c>
+      <c r="C15" s="29" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="28">
-        <f>ROW()-3</f>
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="28">
-        <f>ROW()-3</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="28">
-        <f>ROW()-3</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="28">
-        <f>ROW()-3</f>
-        <v>16</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="28">
-        <f>ROW()-3</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="31"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="28">
-        <f>ROW()-3</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="31"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="28">
-        <f>ROW()-3</f>
-        <v>19</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="31"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="28">
-        <f>ROW()-3</f>
-        <v>20</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="31"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="28">
-        <f>ROW()-3</f>
-        <v>21</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="31"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation sqref="C4:C9 C20:C24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B4:B9 B20:B24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10:C11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B10:B11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C12:C13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B12:B13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C15" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B15" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C16:C17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B16:B17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18:C19" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B18:B19" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602632204" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5383,16 +5287,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602632204" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5405,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
+    <sheetView view="normal" zoomScale="105" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5425,147 +5329,147 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="28" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="28" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="28" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="28" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="28" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="28" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="33"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="33"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="36"/>
+      <c r="A26" s="33"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="36"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="33"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="33"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="33"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="36"/>
+      <c r="A31" s="33"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="36"/>
+      <c r="A32" s="33"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="33"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="36"/>
+      <c r="A36" s="33"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="36"/>
+      <c r="A37" s="33"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="33"/>
@@ -5637,7 +5541,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602632204" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5646,16 +5550,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602632204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632204" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602632204" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/getconfig.xlsx
+++ b/getconfig.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -18,10 +18,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1606695936" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1606695936" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1606695936" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1606695936"/>
+      <pm:revision xmlns:pm="smNativeData" day="1606788993" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1606788993" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1606788993" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1606788993"/>
     </ext>
   </extLst>
 </workbook>
@@ -276,7 +276,7 @@
     <t>getconfig update ticket</t>
   </si>
   <si>
-    <t>※２　事前に構成管理データベースへの接続設定が必要です。詳細は、config\cmdb.groovy を参照してください。</t>
+    <t>※２　事前に構成管理データベースへの接続設定が必要です。詳細は、config\cmdb_sample.groovy を参照してください。</t>
   </si>
   <si>
     <t>esxi.ostrich</t>
@@ -373,7 +373,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606695936" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -388,7 +388,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606695936" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -404,7 +404,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606695936" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -426,7 +426,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -437,7 +437,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -448,7 +448,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -459,7 +459,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -470,7 +470,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -481,7 +481,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -492,7 +492,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -503,7 +503,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -514,7 +514,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -525,7 +525,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -536,7 +536,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -550,7 +550,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -561,7 +561,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -575,7 +575,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -586,7 +586,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -597,7 +597,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -608,7 +608,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -619,7 +619,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606695936" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -644,7 +644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936"/>
+          <pm:border xmlns:pm="smNativeData" id="1606788993"/>
         </ext>
       </extLst>
     </border>
@@ -663,7 +663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936"/>
+          <pm:border xmlns:pm="smNativeData" id="1606788993"/>
         </ext>
       </extLst>
     </border>
@@ -682,7 +682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -704,7 +704,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -725,7 +725,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -747,7 +747,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -769,7 +769,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -790,7 +790,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -812,7 +812,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -836,7 +836,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -860,7 +860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -883,7 +883,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -907,7 +907,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -931,7 +931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -953,7 +953,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -976,7 +976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -999,7 +999,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1020,7 +1020,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1041,7 +1041,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1064,7 +1064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1086,7 +1086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1109,7 +1109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606695936">
+          <pm:border xmlns:pm="smNativeData" id="1606788993">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1141,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,9 +1161,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1">
@@ -1266,10 +1263,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1606695936" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1606788993" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1606695936" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1606788993" count="3">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
@@ -1537,1484 +1534,1484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="3.500000" customWidth="1" style="7"/>
-    <col min="3" max="3" width="18.245455" customWidth="1" style="7"/>
-    <col min="4" max="11" width="14.627273" customWidth="1" style="7"/>
-    <col min="12" max="12" width="8.745455" customWidth="1" style="7"/>
+    <col min="1" max="2" width="3.500000" customWidth="1" style="0"/>
+    <col min="3" max="3" width="18.245455" customWidth="1" style="0"/>
+    <col min="4" max="11" width="14.627273" customWidth="1" style="0"/>
+    <col min="12" max="12" width="8.745455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="8"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="8"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="8"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="8"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="18" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="8"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="8"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="8"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="8"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="28" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="28" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="28" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="28" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="30" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="8"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="30" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="8"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="30" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="8"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="30" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="8"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="7" t="s">
+      <c r="C89" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3039,7 +3036,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606695936" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3050,16 +3047,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606695936" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3072,414 +3069,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView view="normal" zoomScale="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.000000" customWidth="1" style="7"/>
-    <col min="2" max="8" width="13.500000" customWidth="1" style="7"/>
-    <col min="9" max="9" width="44.245455" customWidth="1" style="7"/>
+    <col min="1" max="1" width="13.000000" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.500000" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="22"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="22"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="22"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="22"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3493,7 +3490,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606695936" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3504,16 +3501,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606695936" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3532,648 +3529,648 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.881818" customWidth="1" style="7"/>
+    <col min="1" max="1" width="19.881818" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="36"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="36"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="35"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="36"/>
+      <c r="A37" s="35"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="36"/>
+      <c r="A41" s="35"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="36"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="36"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="36"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="36"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="36"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="36"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="36"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="36"/>
+      <c r="A57" s="35"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="36"/>
+      <c r="A58" s="35"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="36"/>
+      <c r="A59" s="35"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="36"/>
+      <c r="A60" s="35"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="36"/>
+      <c r="A61" s="35"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="36"/>
+      <c r="A62" s="35"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="36"/>
+      <c r="A63" s="35"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="36"/>
+      <c r="A64" s="35"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="36"/>
+      <c r="A65" s="35"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="36"/>
+      <c r="A66" s="35"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="36"/>
+      <c r="A67" s="35"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="36"/>
+      <c r="A68" s="35"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="36"/>
+      <c r="A69" s="35"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="36"/>
+      <c r="A70" s="35"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="36"/>
+      <c r="A71" s="35"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="36"/>
+      <c r="A72" s="35"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="36"/>
+      <c r="A73" s="35"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="36"/>
+      <c r="A74" s="35"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="36"/>
+      <c r="A75" s="35"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="36"/>
+      <c r="A76" s="35"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="36"/>
+      <c r="A77" s="35"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="36"/>
+      <c r="A78" s="35"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="36"/>
+      <c r="A79" s="35"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="36"/>
+      <c r="A80" s="35"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="36"/>
+      <c r="A81" s="35"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="36"/>
+      <c r="A82" s="35"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="36"/>
+      <c r="A83" s="35"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="36"/>
+      <c r="A84" s="35"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="36"/>
+      <c r="A85" s="35"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="36"/>
+      <c r="A86" s="35"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="36"/>
+      <c r="A87" s="35"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="36"/>
+      <c r="A88" s="35"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="36"/>
+      <c r="A89" s="35"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="36"/>
+      <c r="A90" s="35"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="36"/>
+      <c r="A91" s="35"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="36"/>
+      <c r="A92" s="35"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="36"/>
+      <c r="A93" s="35"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="36"/>
+      <c r="A94" s="35"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="36"/>
+      <c r="A95" s="35"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="36"/>
+      <c r="A96" s="35"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="36"/>
+      <c r="A97" s="35"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="36"/>
+      <c r="A98" s="35"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="36"/>
+      <c r="A99" s="35"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="36"/>
+      <c r="A100" s="35"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="36"/>
+      <c r="A101" s="35"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="36"/>
+      <c r="A102" s="35"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="36"/>
+      <c r="A103" s="35"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="36"/>
+      <c r="A104" s="35"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="36"/>
+      <c r="A105" s="35"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="36"/>
+      <c r="A106" s="35"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="36"/>
+      <c r="A107" s="35"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="36"/>
+      <c r="A108" s="35"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="36"/>
+      <c r="A109" s="35"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="36"/>
+      <c r="A110" s="35"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="36"/>
+      <c r="A111" s="35"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="36"/>
+      <c r="A112" s="35"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="36"/>
+      <c r="A113" s="35"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="36"/>
+      <c r="A114" s="35"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="36"/>
+      <c r="A115" s="35"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="36"/>
+      <c r="A116" s="35"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="36"/>
+      <c r="A117" s="35"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="36"/>
+      <c r="A118" s="35"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="36"/>
+      <c r="A119" s="35"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="36"/>
+      <c r="A120" s="35"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="36"/>
+      <c r="A121" s="35"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="36"/>
+      <c r="A122" s="35"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="36"/>
+      <c r="A123" s="35"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="36"/>
+      <c r="A124" s="35"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="36"/>
+      <c r="A125" s="35"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="36"/>
+      <c r="A126" s="35"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="36"/>
+      <c r="A127" s="35"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="36"/>
+      <c r="A128" s="35"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="36"/>
+      <c r="A129" s="35"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="36"/>
+      <c r="A130" s="35"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="36"/>
+      <c r="A131" s="35"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="36"/>
+      <c r="A132" s="35"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="36"/>
+      <c r="A133" s="35"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="36"/>
+      <c r="A134" s="35"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="36"/>
+      <c r="A135" s="35"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="36"/>
+      <c r="A136" s="35"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="36"/>
+      <c r="A137" s="35"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="36"/>
+      <c r="A138" s="35"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="36"/>
+      <c r="A139" s="35"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="36"/>
+      <c r="A140" s="35"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="36"/>
+      <c r="A141" s="35"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="36"/>
+      <c r="A142" s="35"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="36"/>
+      <c r="A143" s="35"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="36"/>
+      <c r="A144" s="35"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="36"/>
+      <c r="A145" s="35"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="36"/>
+      <c r="A146" s="35"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="36"/>
+      <c r="A147" s="35"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="36"/>
+      <c r="A148" s="35"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="36"/>
+      <c r="A149" s="35"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="36"/>
+      <c r="A150" s="35"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="36"/>
+      <c r="A151" s="35"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="36"/>
+      <c r="A152" s="35"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="36"/>
+      <c r="A153" s="35"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="36"/>
+      <c r="A154" s="35"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="36"/>
+      <c r="A155" s="35"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="36"/>
+      <c r="A156" s="35"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="36"/>
+      <c r="A157" s="35"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="36"/>
+      <c r="A158" s="35"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="36"/>
+      <c r="A159" s="35"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="36"/>
+      <c r="A160" s="35"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="36"/>
+      <c r="A161" s="35"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="36"/>
+      <c r="A162" s="35"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="36"/>
+      <c r="A163" s="35"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="36"/>
+      <c r="A164" s="35"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="36"/>
+      <c r="A165" s="35"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="36"/>
+      <c r="A166" s="35"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="36"/>
+      <c r="A167" s="35"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="36"/>
+      <c r="A168" s="35"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="36"/>
+      <c r="A169" s="35"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="36"/>
+      <c r="A170" s="35"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="36"/>
+      <c r="A171" s="35"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="36"/>
+      <c r="A172" s="35"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="36"/>
+      <c r="A173" s="35"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="36"/>
+      <c r="A174" s="35"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="36"/>
+      <c r="A175" s="35"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="36"/>
+      <c r="A176" s="35"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="36"/>
+      <c r="A177" s="35"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="36"/>
+      <c r="A178" s="35"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="36"/>
+      <c r="A179" s="35"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="36"/>
+      <c r="A180" s="35"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="36"/>
+      <c r="A181" s="35"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="36"/>
+      <c r="A182" s="35"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="36"/>
+      <c r="A183" s="35"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="36"/>
+      <c r="A184" s="35"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="36"/>
+      <c r="A185" s="35"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="36"/>
+      <c r="A186" s="35"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="36"/>
+      <c r="A187" s="35"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="36"/>
+      <c r="A188" s="35"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="36"/>
+      <c r="A189" s="35"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="36"/>
+      <c r="A190" s="35"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="36"/>
+      <c r="A191" s="35"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="36"/>
+      <c r="A192" s="35"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="36"/>
+      <c r="A193" s="35"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="36"/>
+      <c r="A194" s="35"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="36"/>
+      <c r="A195" s="35"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="36"/>
+      <c r="A196" s="35"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="36"/>
+      <c r="A197" s="35"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="36"/>
+      <c r="A198" s="35"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="36"/>
+      <c r="A199" s="35"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="36"/>
+      <c r="A200" s="35"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606695936" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4182,16 +4179,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606695936" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606695936" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606695936" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/getconfig.xlsx
+++ b/getconfig.xlsx
@@ -13,27 +13,27 @@
     <sheet name="パラメータ(Packages)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$K$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1606788993" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1606788993" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1606788993" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1606788993"/>
+      <pm:revision xmlns:pm="smNativeData" day="1607311141" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1607311141" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1607311141" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1607311141"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
   <si>
     <t>1. プロジェクト作成</t>
   </si>
   <si>
-    <t>PowerShell コンソールを開いて、「getconfig init "プロジェクトディレクトリ"」でプロジェクトを作成 します。</t>
+    <t>PowerShell コンソールを開いて、「getcf init "プロジェクトディレクトリ"」でプロジェクトを作成 します。</t>
   </si>
   <si>
     <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
@@ -42,7 +42,7 @@
     <t>cd ~\Desktop</t>
   </si>
   <si>
-    <t>getconfig init test_project1 # サンプルを実行する場合、 -t オプションを追加</t>
+    <t>getcf init test_project1 # サンプルを実行する場合、 -t オプションを追加</t>
   </si>
   <si>
     <t>2. 検査シート編集</t>
@@ -210,7 +210,7 @@
     <t>「account.{プラットフォーム}.{アカウントID}.{定義名}」のパラメータ形式の各検査対象の接続アカウントIDを編集します。</t>
   </si>
   <si>
-    <t>// vCenter接続情報</t>
+    <t>// vCenter</t>
   </si>
   <si>
     <t>account.VMWare.Account01.server   = '192.168.0.200'</t>
@@ -222,7 +222,7 @@
     <t>account.VMWare.Account01.password = 'P@ssword'</t>
   </si>
   <si>
-    <t>// Linux 接続情報</t>
+    <t>// Linux</t>
   </si>
   <si>
     <t>account.Linux.Account01.user      = 'psadmin'</t>
@@ -231,7 +231,7 @@
     <t>account.Linux.Account01.password  = 'psadmin'</t>
   </si>
   <si>
-    <t>// Windows 接続情報</t>
+    <t xml:space="preserve">// Windows </t>
   </si>
   <si>
     <t>account.Windows.Account01.user     = 'administrator'</t>
@@ -246,7 +246,10 @@
     <t>run コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
-    <t>getconfig run # チュートリアルを実行する場合は、-dオプションを追加してください</t>
+    <t>初期出荷時は --level オプションにて詳細 レベル(2) を指定してください。通常運用時は指定なし(レベル(0))にします。</t>
+  </si>
+  <si>
+    <t>getcf run --level 2 # チュートリアルを実行する場合は、-dオプションを追加してください</t>
   </si>
   <si>
     <t>build ディレクトリ下に生成された、「check_sheet_{日付}.xlsx」を開いて検査結果を確認します。</t>
@@ -258,7 +261,7 @@
     <t>結果の確認ができたら、update コマンドでインベントリ収集結果をコミットをします。</t>
   </si>
   <si>
-    <t>getconfig update local</t>
+    <t>getcf update local</t>
   </si>
   <si>
     <t>コミットしたデータを構成管理データベースにロードする場合は、以下を実行します。　※２</t>
@@ -267,16 +270,16 @@
     <t>Redmine プラグインのインベントリデータのロード</t>
   </si>
   <si>
-    <t>getconfig update db</t>
+    <t>getcf update db</t>
   </si>
   <si>
     <t>Redmine チケット登録</t>
   </si>
   <si>
-    <t>getconfig update ticket</t>
-  </si>
-  <si>
-    <t>※２　事前に構成管理データベースへの接続設定が必要です。詳細は、config\cmdb_sample.groovy を参照してください。</t>
+    <t>getcf update ticket</t>
+  </si>
+  <si>
+    <t>※２　事前に構成管理データベースへの接続設定が必要です。詳細は、&lt;インストールディレクトリ&gt;\config\cmdb_sample.groovy を参照してください。</t>
   </si>
   <si>
     <t>esxi.ostrich</t>
@@ -373,7 +376,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1607311141" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -388,7 +391,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1607311141" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -404,7 +407,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606788993" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1607311141" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -413,7 +416,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,7 +429,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -437,7 +440,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -448,7 +451,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -459,7 +462,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -470,7 +473,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -481,7 +484,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -492,7 +495,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -503,7 +506,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -514,7 +517,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -525,7 +528,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -536,7 +539,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -550,7 +553,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -561,7 +564,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -575,7 +578,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -586,7 +589,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -597,7 +600,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -608,7 +611,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -619,7 +622,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606788993" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -627,8 +630,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1607311141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -644,7 +658,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993"/>
+          <pm:border xmlns:pm="smNativeData" id="1607311141"/>
         </ext>
       </extLst>
     </border>
@@ -663,7 +677,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993"/>
+          <pm:border xmlns:pm="smNativeData" id="1607311141"/>
         </ext>
       </extLst>
     </border>
@@ -682,7 +696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -704,7 +718,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -725,7 +739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -747,7 +761,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -769,7 +783,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -790,7 +804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -812,7 +826,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -836,7 +850,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -860,7 +874,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -883,7 +897,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -907,7 +921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -931,7 +945,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -953,7 +967,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -976,7 +990,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -999,7 +1013,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1020,7 +1034,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1041,7 +1055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1064,7 +1078,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1086,7 +1100,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1109,7 +1123,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606788993">
+          <pm:border xmlns:pm="smNativeData" id="1607311141">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1117,6 +1131,25 @@
         </ext>
       </extLst>
     </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1607311141"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1141,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1194,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1">
@@ -1263,10 +1299,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1606788993" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1607311141" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1606788993" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1607311141" count="3">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
@@ -1532,1487 +1568,1503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="145" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="3.500000" customWidth="1" style="0"/>
-    <col min="3" max="3" width="18.245455" customWidth="1" style="0"/>
-    <col min="4" max="11" width="14.627273" customWidth="1" style="0"/>
-    <col min="12" max="12" width="8.745455" customWidth="1" style="0"/>
+    <col min="1" max="2" width="3.500000" customWidth="1" style="7"/>
+    <col min="3" max="3" width="18.245455" customWidth="1" style="7"/>
+    <col min="4" max="11" width="14.627273" customWidth="1" style="7"/>
+    <col min="12" max="12" width="8.745455" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="7"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="7"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="7"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="7"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="7"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="7"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="7"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="27" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="7"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="27" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="7"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="27" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="7"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="27" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="A76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="29" t="s">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="29" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="30" t="s">
         <v>82</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3088,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1607311141" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3047,16 +3099,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1607311141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3069,428 +3121,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView view="normal" zoomScale="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.000000" customWidth="1" style="0"/>
-    <col min="2" max="8" width="13.500000" customWidth="1" style="0"/>
-    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
+    <col min="1" max="1" width="13.000000" customWidth="1" style="7"/>
+    <col min="2" max="8" width="13.500000" customWidth="1" style="7"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="32"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="32"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="21"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="32"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="21"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="32"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="21"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="B4:B13 B18:B24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
+    <dataValidation sqref="B4" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="B14:B17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
+    <dataValidation sqref="B5:B24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1607311141" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3501,16 +3553,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1607311141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3523,654 +3575,654 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="235" workbookViewId="0">
+    <sheetView view="normal" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.881818" customWidth="1" style="0"/>
+    <col min="1" max="1" width="19.890909" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
-        <v>88</v>
+      <c r="A1" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
-        <v>89</v>
+      <c r="A2" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
-        <v>90</v>
+      <c r="A3" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
-        <v>91</v>
+      <c r="A4" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
-        <v>92</v>
+      <c r="A5" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
-        <v>93</v>
+      <c r="A6" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
-        <v>94</v>
+      <c r="A7" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
-        <v>95</v>
+      <c r="A8" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
-        <v>96</v>
+      <c r="A9" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
-        <v>97</v>
+      <c r="A10" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="21" t="s">
-        <v>98</v>
+      <c r="A11" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
-        <v>99</v>
+      <c r="A12" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
-        <v>100</v>
+      <c r="A13" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
-        <v>101</v>
+      <c r="A14" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
-        <v>102</v>
+      <c r="A15" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21" t="s">
-        <v>103</v>
+      <c r="A16" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="21" t="s">
-        <v>104</v>
+      <c r="A17" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="35"/>
+      <c r="A35" s="36"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="35"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="36"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="35"/>
+      <c r="A44" s="36"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="36"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="36"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="36"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="36"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
+      <c r="A49" s="36"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="36"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="36"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="35"/>
+      <c r="A52" s="36"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="36"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="36"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="35"/>
+      <c r="A55" s="36"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="35"/>
+      <c r="A56" s="36"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="35"/>
+      <c r="A57" s="36"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="35"/>
+      <c r="A58" s="36"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="35"/>
+      <c r="A59" s="36"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="35"/>
+      <c r="A60" s="36"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="36"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="35"/>
+      <c r="A62" s="36"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="35"/>
+      <c r="A63" s="36"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="35"/>
+      <c r="A64" s="36"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="35"/>
+      <c r="A65" s="36"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="35"/>
+      <c r="A66" s="36"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="35"/>
+      <c r="A67" s="36"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="35"/>
+      <c r="A68" s="36"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="35"/>
+      <c r="A69" s="36"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="35"/>
+      <c r="A70" s="36"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="35"/>
+      <c r="A71" s="36"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="35"/>
+      <c r="A72" s="36"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="35"/>
+      <c r="A73" s="36"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="35"/>
+      <c r="A74" s="36"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="35"/>
+      <c r="A75" s="36"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="35"/>
+      <c r="A76" s="36"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="35"/>
+      <c r="A77" s="36"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="35"/>
+      <c r="A78" s="36"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="35"/>
+      <c r="A79" s="36"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="35"/>
+      <c r="A80" s="36"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="35"/>
+      <c r="A81" s="36"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="35"/>
+      <c r="A82" s="36"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="35"/>
+      <c r="A83" s="36"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="35"/>
+      <c r="A84" s="36"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="35"/>
+      <c r="A85" s="36"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="35"/>
+      <c r="A86" s="36"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="35"/>
+      <c r="A87" s="36"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="35"/>
+      <c r="A88" s="36"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="35"/>
+      <c r="A89" s="36"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="35"/>
+      <c r="A90" s="36"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="35"/>
+      <c r="A91" s="36"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="35"/>
+      <c r="A92" s="36"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="35"/>
+      <c r="A93" s="36"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="35"/>
+      <c r="A94" s="36"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="35"/>
+      <c r="A95" s="36"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="35"/>
+      <c r="A96" s="36"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="35"/>
+      <c r="A97" s="36"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="35"/>
+      <c r="A98" s="36"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="35"/>
+      <c r="A99" s="36"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="35"/>
+      <c r="A100" s="36"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="35"/>
+      <c r="A101" s="36"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="35"/>
+      <c r="A102" s="36"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="35"/>
+      <c r="A103" s="36"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="35"/>
+      <c r="A104" s="36"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="35"/>
+      <c r="A105" s="36"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="35"/>
+      <c r="A106" s="36"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="35"/>
+      <c r="A107" s="36"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="35"/>
+      <c r="A108" s="36"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="35"/>
+      <c r="A109" s="36"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="35"/>
+      <c r="A110" s="36"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="35"/>
+      <c r="A111" s="36"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="35"/>
+      <c r="A112" s="36"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="35"/>
+      <c r="A113" s="36"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="35"/>
+      <c r="A114" s="36"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="35"/>
+      <c r="A115" s="36"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="35"/>
+      <c r="A116" s="36"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="35"/>
+      <c r="A117" s="36"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="35"/>
+      <c r="A118" s="36"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="35"/>
+      <c r="A119" s="36"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="35"/>
+      <c r="A120" s="36"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="35"/>
+      <c r="A121" s="36"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="35"/>
+      <c r="A122" s="36"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="35"/>
+      <c r="A123" s="36"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="35"/>
+      <c r="A124" s="36"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="35"/>
+      <c r="A125" s="36"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="35"/>
+      <c r="A126" s="36"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="35"/>
+      <c r="A127" s="36"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="35"/>
+      <c r="A128" s="36"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="35"/>
+      <c r="A129" s="36"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="35"/>
+      <c r="A130" s="36"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="35"/>
+      <c r="A131" s="36"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="35"/>
+      <c r="A132" s="36"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="35"/>
+      <c r="A133" s="36"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="35"/>
+      <c r="A134" s="36"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="35"/>
+      <c r="A135" s="36"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="35"/>
+      <c r="A136" s="36"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="35"/>
+      <c r="A137" s="36"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="35"/>
+      <c r="A138" s="36"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="35"/>
+      <c r="A139" s="36"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="35"/>
+      <c r="A140" s="36"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="35"/>
+      <c r="A141" s="36"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="35"/>
+      <c r="A142" s="36"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="35"/>
+      <c r="A143" s="36"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="35"/>
+      <c r="A144" s="36"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="35"/>
+      <c r="A145" s="36"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="35"/>
+      <c r="A146" s="36"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="35"/>
+      <c r="A147" s="36"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="35"/>
+      <c r="A148" s="36"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="35"/>
+      <c r="A149" s="36"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="35"/>
+      <c r="A150" s="36"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="35"/>
+      <c r="A151" s="36"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="35"/>
+      <c r="A152" s="36"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="35"/>
+      <c r="A153" s="36"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="35"/>
+      <c r="A154" s="36"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="35"/>
+      <c r="A155" s="36"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="35"/>
+      <c r="A156" s="36"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="35"/>
+      <c r="A157" s="36"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="35"/>
+      <c r="A158" s="36"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="35"/>
+      <c r="A159" s="36"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="35"/>
+      <c r="A160" s="36"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="35"/>
+      <c r="A161" s="36"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="35"/>
+      <c r="A162" s="36"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="35"/>
+      <c r="A163" s="36"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="35"/>
+      <c r="A164" s="36"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="35"/>
+      <c r="A165" s="36"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="35"/>
+      <c r="A166" s="36"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="35"/>
+      <c r="A167" s="36"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="35"/>
+      <c r="A168" s="36"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="35"/>
+      <c r="A169" s="36"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="35"/>
+      <c r="A170" s="36"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="35"/>
+      <c r="A171" s="36"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="35"/>
+      <c r="A172" s="36"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="35"/>
+      <c r="A173" s="36"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="35"/>
+      <c r="A174" s="36"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="35"/>
+      <c r="A175" s="36"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="35"/>
+      <c r="A176" s="36"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="35"/>
+      <c r="A177" s="36"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="35"/>
+      <c r="A178" s="36"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="35"/>
+      <c r="A179" s="36"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="35"/>
+      <c r="A180" s="36"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="35"/>
+      <c r="A181" s="36"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="35"/>
+      <c r="A182" s="36"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="35"/>
+      <c r="A183" s="36"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="35"/>
+      <c r="A184" s="36"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="35"/>
+      <c r="A185" s="36"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="35"/>
+      <c r="A186" s="36"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="35"/>
+      <c r="A187" s="36"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="35"/>
+      <c r="A188" s="36"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="35"/>
+      <c r="A189" s="36"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="35"/>
+      <c r="A190" s="36"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="35"/>
+      <c r="A191" s="36"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="35"/>
+      <c r="A192" s="36"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="35"/>
+      <c r="A193" s="36"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="35"/>
+      <c r="A194" s="36"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="35"/>
+      <c r="A195" s="36"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="35"/>
+      <c r="A196" s="36"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="35"/>
+      <c r="A197" s="36"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="35"/>
+      <c r="A198" s="36"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="35"/>
+      <c r="A199" s="36"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="35"/>
+      <c r="A200" s="36"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606788993" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1607311141" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4179,16 +4231,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606788993" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606788993" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1607311141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1607311141" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606788993" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1607311141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/getconfig.xlsx
+++ b/getconfig.xlsx
@@ -706,7 +706,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,7 +2219,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2646,13 +2646,13 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B24" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -3313,7 +3313,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/getconfig.xlsx
+++ b/getconfig.xlsx
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1608512551" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1608512551" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1608512551" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1608512551"/>
+      <pm:revision xmlns:pm="smNativeData" day="1609311940" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1609311940" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1609311940" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1609311940"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
   <si>
     <t>1. プロジェクト作成</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>VMHost</t>
-  </si>
-  <si>
-    <t>192.168.0.200</t>
   </si>
   <si>
     <t>CiscoUCS</t>
@@ -376,7 +373,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608512551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609311940" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -391,7 +388,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608512551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609311940" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -407,7 +404,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608512551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609311940" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -429,7 +426,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -440,7 +437,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -451,7 +448,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -462,7 +459,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -473,7 +470,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -484,7 +481,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -495,7 +492,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -506,7 +503,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -517,7 +514,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -528,7 +525,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -539,7 +536,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -553,7 +550,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -564,7 +561,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -578,7 +575,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -589,7 +586,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -600,7 +597,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -611,7 +608,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -622,7 +619,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608512551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609311940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -647,7 +644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551"/>
+          <pm:border xmlns:pm="smNativeData" id="1609311940"/>
         </ext>
       </extLst>
     </border>
@@ -666,7 +663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551"/>
+          <pm:border xmlns:pm="smNativeData" id="1609311940"/>
         </ext>
       </extLst>
     </border>
@@ -685,7 +682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -707,7 +704,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -728,7 +725,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -750,7 +747,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -772,7 +769,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -793,7 +790,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -815,7 +812,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -839,7 +836,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -863,7 +860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -886,7 +883,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -910,7 +907,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -934,7 +931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -956,7 +953,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -979,7 +976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1002,7 +999,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1023,7 +1020,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1044,7 +1041,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1067,7 +1064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1089,7 +1086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1112,7 +1109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608512551">
+          <pm:border xmlns:pm="smNativeData" id="1609311940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1269,10 +1266,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1608512551" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1609311940" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1608512551" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1609311940" count="3">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
@@ -3058,7 +3055,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608512551" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609311940" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3069,16 +3066,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608512551" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609311940" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3092,7 +3089,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -3370,9 +3367,7 @@
       <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3385,10 +3380,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="21"/>
       <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>30</v>
@@ -3501,13 +3496,13 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B4:B24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+      <formula1>"Linux,Windows,Windows.py,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608512551" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609311940" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3518,16 +3513,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608512551" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609311940" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3551,87 +3546,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -4187,7 +4182,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608512551" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609311940" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4196,16 +4191,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608512551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608512551" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609311940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609311940" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608512551" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609311940" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
